--- a/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,30 +52,18 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you Chairman Scott, Ranking Member Scott, and Members of this Subcommittee. I am pleased to update you on the CFTC's progress in achieving the G20's swap data reporting goals.    I am the Director of the CFTC's Office of Data and Technology and serve in the role of Chief Information Officer. In this capacity, I oversee the technology and data functions of the Commission.    As you know, increased data reporting was a key objective of the G20 agreement and Dodd-Frank.    The CFTC has made significant progress since 2008 where there was virtually no reporting of swaps positions or transactions. During the crisis, a lack of data made it difficult for regulators and market participants to assess the exposures and interconnectedness of major institutions.    Today, all swaps, whether cleared or uncleared, are reported to swaps data repositories. Public websites are providing price and volume information for individual swaps transactions in real-time. This facilitates efficient price discovery for all market participants, including end-users such as farmers, ranchers and commercial businesses of all types.    As a regulator, the CFTC's ability to oversee the swaps market has dramatically improved. But building this system is complicated and an ongoing task. It is time and resource intensive requiring constant updates and refinements as we understand the data better.    As a result, the Commission is working to ensure the data it receives is clean, consistent, accurate, and timely. It is collaborating with market participants to analyze exactly what data should be reported, how it should be reported, by whom, and when. And the agency is working with industry and other nations to harmonize and standardize our efforts.    One of the issues the CFTC is taking action to address is the variation in how the same data from different counterparties is reported. This causes problems when it comes to aggregating and analyzing this information. To address this issue, CFTC staff recently requested public comment on technical specifications for the reporting of 120 priority data elements. This followed months of work to identify areas where standardization or clarification is needed. From this feedback, the Commission will develop proposals that specify the form, manner, and allowable values that each data element may have. In fact, just this week the Commission held a public hearing of the CFTC's Technology Advisory Committee to discuss this issue among others.    The Commission is also working towards obtaining complete data. Some required fields are not reported by participants, and SDRs do not believe they have the authority to reject data if it is incomplete. CFTC Chairman Massad recently underscored his belief that the CFTC should change its rules so that SDRs have a greater ability to improve the quality of data before it arrives at the CFTC. Staff is looking closely at this possibility.    Further, the CFTC is working to develop a uniform, effective means to identify swaps and swap activity by participant, transaction, and product type throughout the swap lifecycle. And we are at the forefront to addressing all these issues internationally.    I am pleased to co-chair the international task force that is leading global harmonization efforts.    Finally, the Commission continues to fine tune its rules to clarify which entities have an obligation to report data and what data must be reported. It is paying particular attention to the needs of commercial market participants, ultimately working to eliminate reporting obligations that are not necessary.    Thank you, Mr. Chairman, and Members of this Committee. Let me conclude by reiterating that this swap data reporting effort is a significant, global undertaking. Completing it properly will take time. But I believe the agency has made significant progress in just a few short years. Thank you again for inviting me. I welcome your thoughts and questions.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Kruse</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kruse. Chairman Scott, Ranking Member Scott, and Members of the Committee, thank you for the opportunity to testify today. My name is Tara Kruse, and I am Co-Head of Data Reporting and FpML at the International Swaps and Derivatives Association.    A central component of the G20 commitments in Pittsburgh was the reporting of derivatives to trade repositories in order to increase transparency and enable regulators to spot risk concentrations. Recognizing derivative markets are global, the G20 committed to use consistent standards in order to avoid fragmentation and regulatory arbitrage.    Substantial efforts have been made toward realizing these commitments. Today, derivatives trades in the United States are reported to trade repositories. An increasing number of transactions are reported globally.    Despite these advancements, U.S. regulators have struggled to fully understand and optimize the data being reported and are not in a position to have a complete picture of either domestic or global risk exposures. This visibility is impeded by the failure to use globally consistent standards that facilitate efficient, accurate data reporting that is suitable for aggregation and systemic risk analysis.    Contributing to the challenge is the fact that each regulator has developed a unique set of reporting requirements and devised its own list of reportable data fields. This not only makes reporting complex and more costly for derivatives users, but it means the data cannot be aggregated to obtain a clear view of global derivatives trading activity.    Let me illustrate this important point with a very simple analogy. Imagine if every car dealership in the United States and around the world was required to report basic facts about each and every car that it sold, including the car's size. Due to differences in regulatory oversight of these dealerships, some dealers reported size as the car's weight. Others as the number of passengers it held, yet others as its length or its horsepower.    The solution is for regulators to work together and with the industry to agree on a core list of systemically important data fields that are reported in a consistent manner based on existing data and messaging standards. ISDA stands ready to help in this regard. We have worked to develop standard taxonomies and standard messaging language, and we are currently leading an industry initiative to develop standard product identifiers.    ISDA and its members would suggest several concrete steps that could be taken to improve data reporting and systemic risk monitoring, while at the same time reducing the cost and complexity for market participants.    First, CPMI-IOSCO should lead global data harmonization. Agreement on common data standards should be achieved in coordination with the efforts of the Harmonization Group of global regulators established by CPMI and IOSCO. This group has issued consultations on standard transaction and product identifiers, as well as reportable data elements. Consistency on these standards is key to achieving greater harmonization. It is important the CFTC and SEC are aligned with this global initiative and do not engage in further overlapping and potentially contradictory data proposals.    Second, data fields should be specified and based on existing market standards. Regulators should work with industry to ensure regulatory requirements closely align with prevailing industry-defined terms and practices. All data elements required by regulators to meet their objectives should be explicitly specified in the regulations. Existing derivatives messaging standards, such as Financial products Markup Language, or FpML, should be leveraged where possible.    Third, domestic regulators should align on data rules. Given that both the CFTC and the SEC developed reporting rules in response to the same piece of legislation, the rationale for issuing different requirements is difficult to comprehend. The split between swaps and security-based swaps undermines the ability of the Commissions to aggregate their data and provide Congress with a holistic view of risk in the U.S. derivatives market.    Finally, reporting requirements should be rationalized and streamlined. Regulators should determine what data they need to monitor systemic risk and simplify reporting requirements accordingly. Certain data fields are currently required to be reported or proposed to be required that offer little insight into risk. This increases the volume of data that needs to be analyzed, to little benefit, and increases the cost and complexity of reporting which in turn undermines data quality. Regulators should agree on a meaningful set of globally consistent data fields that enables them to meet their regulatory objectives. Regulators should also assign the sole responsibility for both the reporting of data and the accuracy of the data for a transaction to a single party which is best situated to do so, thereby reducing the cost and burden to end-users.    Thank you for inviting me to speak today on this important topic. ISDA is a strong proponent of improving the accuracy, consistency, and efficiency of transaction reporting while mitigating its costs and burdens. We stand ready to help. Thank you.</t>
   </si>
   <si>
-    <t>Collazo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Collazo. Thank you, Chairman Scott, Ranking Member Scott, and Members of the Subcommittee. I am Marisol Collazo, Managing Director at DTCC and Chief Executive Officer of the DTCC's Swap Data Repository. I appreciate the opportunity to share my perspective on the current status of swaps data reporting.    In 2009, G20 leaders, committed to making the global OTC derivatives market safer and more transparent. This transparency will assist regulators globally to monitor systemic risk forming in the swaps market. Swap data repositories, or SDRs, emerged as a way to achieve this goal.    Since then, progress has been made and trade reporting regimes are in place across all major jurisdictions. Today, authorities have access to more data than ever before. In the United States, we process 80 million messages a week or more than four billion messages a year.    In order to assess the effectiveness of trade reporting, we must refer back to the two goals of the G20 mandate: First, to provide transparency into opaque markets; and second, for regulators to utilize such transparency to identify and anticipate potential systemic risk.    There are aspects of the data being reported today that are useful to both the CFTC and the public at large. For example, public price transparency is now reported on a real-time basis. This provides a window into a market that was previously opaque. From this data, the CFTC can see volumes and the number of transactions executed daily. Further, the CFTC has an even deeper view of reported data that can be used for surveillance and other regulatory purposes.    Now let's turn to the challenges that remain. Given that the swaps market is inherently cross-border, in order to fully maximize the usefulness of the data reported to SDRs, a globally consistent framework for standardization and governance are needed. Today, unfortunately, inconsistent reporting requirements amongst various jurisdictions are hindering this ability. Global data harmonization and regulatory access to data remain a challenge. DTCC applauds Congress for removing the Dodd-Frank's indemnification provision. However, more work remains. These challenges must be resolved before regulators can effectively aggregate data and determine the systemic risk profile of a global swap dealer.    Based on DTCC's experience, supporting regulatory reporting across nine jurisdictions, we have seen divergent requirements even within the same data elements. This variance has negatively impacted data quality and increased complexity. Instead, we recommend that regulators agree to a standard approach for reporting the core terms of the swap across jurisdictions. Such global consistency will facilitate efforts by regulators to share and aggregate data, allowing for a more complete and harmonized view of the OTC derivatives market.    The CFTC recently issued a request for comment on technical specifications for the reporting of certain data elements. DTCC strongly encourages the CFTC to recognize existing market convention in its effort to improve currently reported data. The CFTC should carefully consider if any proposed changes significantly add value or if they inject unintended complexity into the current reporting system.    We also encourage the CFTC to align with policy-making efforts underway globally such as those spearheaded by CPMI-IOSCO to establish consistent data standards. For example, much progress has been made on establishing a recommended standard for product and transaction identifiers. We look forward to the remaining work that CPMI-IOSCO will take on for other key data elements.    Another important step is the establishment of a governance framework to facilitate management of this global data set and regulatory access to data. This framework will help ensure that standards are maintained and updated as markets evolve.    In conclusion, the priorities I have outlined will assist in realizing the G20 goals of market transparency and systemic risk oversight. We believe that Congress must ensure regulators remain focused on implementing such framework as I have described. Thank you, Mr. Chairman, for the opportunity to present and participate in today's hearing, and I look forward to your questions.</t>
   </si>
   <si>
-    <t>Gil</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gil. Thank you. Mr. Chairman, Ranking Member Scott, other Members of the Subcommittee for the opportunity to testify at this hearing to review the G20 swap data reporting goals.    My name is Andres Gil, and I am testifying on behalf of the U.S. Chamber of Commerce and the Coalition for Derivatives End-Users. The Chamber is the world's largest business federation, representing the interests of more than three million businesses of all sizes, sectors, and regions. The Coalition includes more than 300 end-user companies and trade associations. Collectively, the Chamber and the Coalition represent a wide and diverse population of domestic and international commercial businesses and trade associations.    At the outset, let me thank the Members of this Subcommittee for their focus on balancing regulations, to promote financial stability, and for Main Street businesses to have the tools necessary to operate and grow as well as the CFTC for listening to the concerns of end-users and for creating a data-reporting regime that is both robust and sensible.    The Chamber believes in America's global leadership in capital formation and supports capital markets that are the most fair, transparent, efficient, and innovative in the world. As part of that mission, we recognize the acute need for commercial end-users to effectively manage risks. This should be consistent with financial regulatory measures that promote economic stability and transparency without imposing undue burdens on derivatives end-users.    With that background in mind, we support and believe in the G20 swap data reporting goals including improving transparency in derivatives markets, mitigating systemic risk, and preventing market abuse. But there are real economic consequences of getting derivatives regulation wrong. Main Street businesses use derivatives to obtain access to raw materials, lock in prices for commodities, and mitigate risk. Many U.S. companies are able to maintain more stable and successful operations through the use of a variety of risk management tools, including derivatives. Smart regulation should encourage, not discourage, such practices.    However, implementation of the G20 goals has begun to hurt end-users. For example, the European Union appears to be proceeding without due regard for the economic and regulatory burdens imposed on end-users by certain swap data reporting obligations. These include dual-sided reporting and interaffiliate obligations which require end-users to adopt costly new reporting systems to comply with EU law. Both requirements impose significant initial and ongoing operational, legal, and cost burdens for end-user companies.    We suggest that there must be a better way for regulators and the market to get the data they need without imposing duplicative and burdensome regulations on real economy companies, especially because they do nothing to promote the goals of the G20 framework.    Ultimately, the Chamber and the Coalition believe that this has resulted in a fragmented market where U.S. end-users operating abroad now face compliance with multiple reporting regimes and required data sets for their transactions.    The larger point, however, is that the cumulative effect of new derivatives regulation threatens to impose undue burdens on end-user hedging. Both the direct regulation of end-users, the reporting requirements on which this hearing is focused, and indirect regulation, such as capital and liquidity requirements imposed on our counterparties serves to discourage end-user risk management through hedging.    We need a regulatory system that allows Main Street to effectively use derivatives to hedge commercial risk resulting in key economic benefits, one that allows businesses to improve their planning and forecasting, manage unforeseen and uncontrollable events, offer more stable prices to consumers, and contribute to economic growth. We should always aim to avoid the imposition of unnecessary burdens on end-users that restricts job growth, decreases investment, and undermines our competitiveness abroad.    As the Subcommittee considers the implementation of G20 reporting obligations, it is our hope that these issues will be at the forefront of your efforts. Continued support for global standards, rather than proceeding on divergent paths, is important for data reporting consistency. Congress has the ability to influence that process by promoting harmonization and sensitivity to the impacts on end-user companies. Together, we can strengthen our financial systems by supporting Main Street business.    Thank you, and I am happy to address any questions that you may have.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman. One of the things, as I sit on this Committee and the Financial Services Committee, and we have been dealing with a plethora of regulations that came out of Dodd-Frank, is that changing the business model into market behavior. And one of the things I have been particularly concerned about is liquidity in some of these markets. And markets do not perform well if they don't have the right amount of liquidity. And what we have seen is that some of these regulations have changed market players' behavior. We have seen some players get out of the marketplace.    And so one of the things that I am a little concerned about is this recently drafted technical specifications creates a pretty detailed and highly prescriptive set of standards on how to report each and every trade. And I am afraid that might not be all that easy for some of the non-standard hedging products.    So I guess, Ms. Kruse, do I have a valid concern that with all of these changes that we are making, that we are changing market behavior a little bit and potentially have a liquidity issue?</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. I have a couple questions for Mr. Rogers. In your testimony you comment that in a post-Dodd-Frank world, the Commission has adopted rules for data reporting that have changed how we view the markets. Specifically, can you talk a little bit about the transparency to market participants? Give me an example of that and what do you believe are some of the most significant gains in these efforts. And with respect to SDR data quality, do we plan to continue building upon this progress and how will we do that?</t>
   </si>
   <si>
@@ -163,9 +145,6 @@
     <t>412510</t>
   </si>
   <si>
-    <t>Doug LaMalfa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. Mr. Gil, of course, I am glad we are having this hearing. It is important to hear from the end-users on how this process works or the difficulties of it. You didn't have a whole lot of time earlier. Could you elaborate a little more on the burdens that are imposed on the end-users by this amount of data that is required? Would you care to elaborate a little bit more on what that really looks like and what kind of a barrier that might actually be towards trading?</t>
   </si>
   <si>
@@ -280,9 +259,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and thanks to all the witnesses for being here today. I would like to start with Mr. Rogers. As the CFTC pushes to develop these standards to report each and every swap trade, are precautions being taken to ensure that such rules don't end up hurting liquidity? Because reporting actually imposes real costs on the market participants.</t>
   </si>
   <si>
@@ -344,9 +320,6 @@
   </si>
   <si>
     <t>412673</t>
-  </si>
-  <si>
-    <t>Trent Kelly</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Kelly. Ms. Kruse, the CFTC swap data reporting requirements are not fully aligned with the SEC's requirement for securities-based swap data. Differences exist as to who is obligated to report, reporting timelines, and what data is reportable. What is the impact of these discrepancies between the SEC and CFTC's swap data reporting standards?</t>
@@ -772,11 +745,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -796,13 +767,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -822,13 +791,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -848,13 +815,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -874,13 +839,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -900,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -926,13 +887,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -952,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -978,13 +935,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1004,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1030,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1056,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1082,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1108,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1134,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1160,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1186,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1212,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1238,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1264,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1290,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1316,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1342,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1370,11 +1297,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1394,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1422,11 +1345,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1446,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
         <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1472,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1498,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1524,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
-      </c>
-      <c r="G31" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1550,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1576,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1602,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1628,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>49</v>
-      </c>
-      <c r="H35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1654,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1680,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1708,11 +1609,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1732,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>48</v>
-      </c>
-      <c r="G39" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1760,11 +1657,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1784,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
-      </c>
-      <c r="G41" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1812,11 +1705,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1838,11 +1729,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1864,11 +1753,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1890,11 +1777,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1914,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1942,11 +1825,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1968,11 +1849,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1994,11 +1873,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2018,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2044,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2070,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2096,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2122,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2148,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2174,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2200,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2226,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>48</v>
-      </c>
-      <c r="G58" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2252,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2278,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2304,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G61" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2330,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2356,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
-      </c>
-      <c r="G63" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2382,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2408,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
-      </c>
-      <c r="G65" t="s">
-        <v>49</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2434,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2462,11 +2305,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2486,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
-      </c>
-      <c r="G68" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2512,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2538,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2564,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2590,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>87</v>
-      </c>
-      <c r="G72" t="s">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2616,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2642,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2668,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2694,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2720,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2746,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>87</v>
-      </c>
-      <c r="G78" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2772,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2798,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
-      </c>
-      <c r="G80" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2826,11 +2641,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2850,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
-      </c>
-      <c r="G82" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2876,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2904,11 +2713,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2928,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
-      </c>
-      <c r="G85" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2954,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>109</v>
-      </c>
-      <c r="G86" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2980,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3006,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
-      </c>
-      <c r="G88" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3032,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>17</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3058,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>109</v>
-      </c>
-      <c r="G90" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3086,11 +2881,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3110,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
-      </c>
-      <c r="G92" t="s">
-        <v>110</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3136,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>19</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3162,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>109</v>
-      </c>
-      <c r="G94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
         <v>110</v>
-      </c>
-      <c r="H94" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,18 +55,33 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you Chairman Scott, Ranking Member Scott, and Members of this Subcommittee. I am pleased to update you on the CFTC's progress in achieving the G20's swap data reporting goals.    I am the Director of the CFTC's Office of Data and Technology and serve in the role of Chief Information Officer. In this capacity, I oversee the technology and data functions of the Commission.    As you know, increased data reporting was a key objective of the G20 agreement and Dodd-Frank.    The CFTC has made significant progress since 2008 where there was virtually no reporting of swaps positions or transactions. During the crisis, a lack of data made it difficult for regulators and market participants to assess the exposures and interconnectedness of major institutions.    Today, all swaps, whether cleared or uncleared, are reported to swaps data repositories. Public websites are providing price and volume information for individual swaps transactions in real-time. This facilitates efficient price discovery for all market participants, including end-users such as farmers, ranchers and commercial businesses of all types.    As a regulator, the CFTC's ability to oversee the swaps market has dramatically improved. But building this system is complicated and an ongoing task. It is time and resource intensive requiring constant updates and refinements as we understand the data better.    As a result, the Commission is working to ensure the data it receives is clean, consistent, accurate, and timely. It is collaborating with market participants to analyze exactly what data should be reported, how it should be reported, by whom, and when. And the agency is working with industry and other nations to harmonize and standardize our efforts.    One of the issues the CFTC is taking action to address is the variation in how the same data from different counterparties is reported. This causes problems when it comes to aggregating and analyzing this information. To address this issue, CFTC staff recently requested public comment on technical specifications for the reporting of 120 priority data elements. This followed months of work to identify areas where standardization or clarification is needed. From this feedback, the Commission will develop proposals that specify the form, manner, and allowable values that each data element may have. In fact, just this week the Commission held a public hearing of the CFTC's Technology Advisory Committee to discuss this issue among others.    The Commission is also working towards obtaining complete data. Some required fields are not reported by participants, and SDRs do not believe they have the authority to reject data if it is incomplete. CFTC Chairman Massad recently underscored his belief that the CFTC should change its rules so that SDRs have a greater ability to improve the quality of data before it arrives at the CFTC. Staff is looking closely at this possibility.    Further, the CFTC is working to develop a uniform, effective means to identify swaps and swap activity by participant, transaction, and product type throughout the swap lifecycle. And we are at the forefront to addressing all these issues internationally.    I am pleased to co-chair the international task force that is leading global harmonization efforts.    Finally, the Commission continues to fine tune its rules to clarify which entities have an obligation to report data and what data must be reported. It is paying particular attention to the needs of commercial market participants, ultimately working to eliminate reporting obligations that are not necessary.    Thank you, Mr. Chairman, and Members of this Committee. Let me conclude by reiterating that this swap data reporting effort is a significant, global undertaking. Completing it properly will take time. But I believe the agency has made significant progress in just a few short years. Thank you again for inviting me. I welcome your thoughts and questions.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Kruse</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Kruse. Chairman Scott, Ranking Member Scott, and Members of the Committee, thank you for the opportunity to testify today. My name is Tara Kruse, and I am Co-Head of Data Reporting and FpML at the International Swaps and Derivatives Association.    A central component of the G20 commitments in Pittsburgh was the reporting of derivatives to trade repositories in order to increase transparency and enable regulators to spot risk concentrations. Recognizing derivative markets are global, the G20 committed to use consistent standards in order to avoid fragmentation and regulatory arbitrage.    Substantial efforts have been made toward realizing these commitments. Today, derivatives trades in the United States are reported to trade repositories. An increasing number of transactions are reported globally.    Despite these advancements, U.S. regulators have struggled to fully understand and optimize the data being reported and are not in a position to have a complete picture of either domestic or global risk exposures. This visibility is impeded by the failure to use globally consistent standards that facilitate efficient, accurate data reporting that is suitable for aggregation and systemic risk analysis.    Contributing to the challenge is the fact that each regulator has developed a unique set of reporting requirements and devised its own list of reportable data fields. This not only makes reporting complex and more costly for derivatives users, but it means the data cannot be aggregated to obtain a clear view of global derivatives trading activity.    Let me illustrate this important point with a very simple analogy. Imagine if every car dealership in the United States and around the world was required to report basic facts about each and every car that it sold, including the car's size. Due to differences in regulatory oversight of these dealerships, some dealers reported size as the car's weight. Others as the number of passengers it held, yet others as its length or its horsepower.    The solution is for regulators to work together and with the industry to agree on a core list of systemically important data fields that are reported in a consistent manner based on existing data and messaging standards. ISDA stands ready to help in this regard. We have worked to develop standard taxonomies and standard messaging language, and we are currently leading an industry initiative to develop standard product identifiers.    ISDA and its members would suggest several concrete steps that could be taken to improve data reporting and systemic risk monitoring, while at the same time reducing the cost and complexity for market participants.    First, CPMI-IOSCO should lead global data harmonization. Agreement on common data standards should be achieved in coordination with the efforts of the Harmonization Group of global regulators established by CPMI and IOSCO. This group has issued consultations on standard transaction and product identifiers, as well as reportable data elements. Consistency on these standards is key to achieving greater harmonization. It is important the CFTC and SEC are aligned with this global initiative and do not engage in further overlapping and potentially contradictory data proposals.    Second, data fields should be specified and based on existing market standards. Regulators should work with industry to ensure regulatory requirements closely align with prevailing industry-defined terms and practices. All data elements required by regulators to meet their objectives should be explicitly specified in the regulations. Existing derivatives messaging standards, such as Financial products Markup Language, or FpML, should be leveraged where possible.    Third, domestic regulators should align on data rules. Given that both the CFTC and the SEC developed reporting rules in response to the same piece of legislation, the rationale for issuing different requirements is difficult to comprehend. The split between swaps and security-based swaps undermines the ability of the Commissions to aggregate their data and provide Congress with a holistic view of risk in the U.S. derivatives market.    Finally, reporting requirements should be rationalized and streamlined. Regulators should determine what data they need to monitor systemic risk and simplify reporting requirements accordingly. Certain data fields are currently required to be reported or proposed to be required that offer little insight into risk. This increases the volume of data that needs to be analyzed, to little benefit, and increases the cost and complexity of reporting which in turn undermines data quality. Regulators should agree on a meaningful set of globally consistent data fields that enables them to meet their regulatory objectives. Regulators should also assign the sole responsibility for both the reporting of data and the accuracy of the data for a transaction to a single party which is best situated to do so, thereby reducing the cost and burden to end-users.    Thank you for inviting me to speak today on this important topic. ISDA is a strong proponent of improving the accuracy, consistency, and efficiency of transaction reporting while mitigating its costs and burdens. We stand ready to help. Thank you.</t>
   </si>
   <si>
+    <t>Collazo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Collazo. Thank you, Chairman Scott, Ranking Member Scott, and Members of the Subcommittee. I am Marisol Collazo, Managing Director at DTCC and Chief Executive Officer of the DTCC's Swap Data Repository. I appreciate the opportunity to share my perspective on the current status of swaps data reporting.    In 2009, G20 leaders, committed to making the global OTC derivatives market safer and more transparent. This transparency will assist regulators globally to monitor systemic risk forming in the swaps market. Swap data repositories, or SDRs, emerged as a way to achieve this goal.    Since then, progress has been made and trade reporting regimes are in place across all major jurisdictions. Today, authorities have access to more data than ever before. In the United States, we process 80 million messages a week or more than four billion messages a year.    In order to assess the effectiveness of trade reporting, we must refer back to the two goals of the G20 mandate: First, to provide transparency into opaque markets; and second, for regulators to utilize such transparency to identify and anticipate potential systemic risk.    There are aspects of the data being reported today that are useful to both the CFTC and the public at large. For example, public price transparency is now reported on a real-time basis. This provides a window into a market that was previously opaque. From this data, the CFTC can see volumes and the number of transactions executed daily. Further, the CFTC has an even deeper view of reported data that can be used for surveillance and other regulatory purposes.    Now let's turn to the challenges that remain. Given that the swaps market is inherently cross-border, in order to fully maximize the usefulness of the data reported to SDRs, a globally consistent framework for standardization and governance are needed. Today, unfortunately, inconsistent reporting requirements amongst various jurisdictions are hindering this ability. Global data harmonization and regulatory access to data remain a challenge. DTCC applauds Congress for removing the Dodd-Frank's indemnification provision. However, more work remains. These challenges must be resolved before regulators can effectively aggregate data and determine the systemic risk profile of a global swap dealer.    Based on DTCC's experience, supporting regulatory reporting across nine jurisdictions, we have seen divergent requirements even within the same data elements. This variance has negatively impacted data quality and increased complexity. Instead, we recommend that regulators agree to a standard approach for reporting the core terms of the swap across jurisdictions. Such global consistency will facilitate efforts by regulators to share and aggregate data, allowing for a more complete and harmonized view of the OTC derivatives market.    The CFTC recently issued a request for comment on technical specifications for the reporting of certain data elements. DTCC strongly encourages the CFTC to recognize existing market convention in its effort to improve currently reported data. The CFTC should carefully consider if any proposed changes significantly add value or if they inject unintended complexity into the current reporting system.    We also encourage the CFTC to align with policy-making efforts underway globally such as those spearheaded by CPMI-IOSCO to establish consistent data standards. For example, much progress has been made on establishing a recommended standard for product and transaction identifiers. We look forward to the remaining work that CPMI-IOSCO will take on for other key data elements.    Another important step is the establishment of a governance framework to facilitate management of this global data set and regulatory access to data. This framework will help ensure that standards are maintained and updated as markets evolve.    In conclusion, the priorities I have outlined will assist in realizing the G20 goals of market transparency and systemic risk oversight. We believe that Congress must ensure regulators remain focused on implementing such framework as I have described. Thank you, Mr. Chairman, for the opportunity to present and participate in today's hearing, and I look forward to your questions.</t>
   </si>
   <si>
+    <t>Gil</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gil. Thank you. Mr. Chairman, Ranking Member Scott, other Members of the Subcommittee for the opportunity to testify at this hearing to review the G20 swap data reporting goals.    My name is Andres Gil, and I am testifying on behalf of the U.S. Chamber of Commerce and the Coalition for Derivatives End-Users. The Chamber is the world's largest business federation, representing the interests of more than three million businesses of all sizes, sectors, and regions. The Coalition includes more than 300 end-user companies and trade associations. Collectively, the Chamber and the Coalition represent a wide and diverse population of domestic and international commercial businesses and trade associations.    At the outset, let me thank the Members of this Subcommittee for their focus on balancing regulations, to promote financial stability, and for Main Street businesses to have the tools necessary to operate and grow as well as the CFTC for listening to the concerns of end-users and for creating a data-reporting regime that is both robust and sensible.    The Chamber believes in America's global leadership in capital formation and supports capital markets that are the most fair, transparent, efficient, and innovative in the world. As part of that mission, we recognize the acute need for commercial end-users to effectively manage risks. This should be consistent with financial regulatory measures that promote economic stability and transparency without imposing undue burdens on derivatives end-users.    With that background in mind, we support and believe in the G20 swap data reporting goals including improving transparency in derivatives markets, mitigating systemic risk, and preventing market abuse. But there are real economic consequences of getting derivatives regulation wrong. Main Street businesses use derivatives to obtain access to raw materials, lock in prices for commodities, and mitigate risk. Many U.S. companies are able to maintain more stable and successful operations through the use of a variety of risk management tools, including derivatives. Smart regulation should encourage, not discourage, such practices.    However, implementation of the G20 goals has begun to hurt end-users. For example, the European Union appears to be proceeding without due regard for the economic and regulatory burdens imposed on end-users by certain swap data reporting obligations. These include dual-sided reporting and interaffiliate obligations which require end-users to adopt costly new reporting systems to comply with EU law. Both requirements impose significant initial and ongoing operational, legal, and cost burdens for end-user companies.    We suggest that there must be a better way for regulators and the market to get the data they need without imposing duplicative and burdensome regulations on real economy companies, especially because they do nothing to promote the goals of the G20 framework.    Ultimately, the Chamber and the Coalition believe that this has resulted in a fragmented market where U.S. end-users operating abroad now face compliance with multiple reporting regimes and required data sets for their transactions.    The larger point, however, is that the cumulative effect of new derivatives regulation threatens to impose undue burdens on end-user hedging. Both the direct regulation of end-users, the reporting requirements on which this hearing is focused, and indirect regulation, such as capital and liquidity requirements imposed on our counterparties serves to discourage end-user risk management through hedging.    We need a regulatory system that allows Main Street to effectively use derivatives to hedge commercial risk resulting in key economic benefits, one that allows businesses to improve their planning and forecasting, manage unforeseen and uncontrollable events, offer more stable prices to consumers, and contribute to economic growth. We should always aim to avoid the imposition of unnecessary burdens on end-users that restricts job growth, decreases investment, and undermines our competitiveness abroad.    As the Subcommittee considers the implementation of G20 reporting obligations, it is our hope that these issues will be at the forefront of your efforts. Continued support for global standards, rather than proceeding on divergent paths, is important for data reporting consistency. Congress has the ability to influence that process by promoting harmonization and sensitivity to the impacts on end-user companies. Together, we can strengthen our financial systems by supporting Main Street business.    Thank you, and I am happy to address any questions that you may have.</t>
   </si>
   <si>
@@ -97,6 +115,12 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman. One of the things, as I sit on this Committee and the Financial Services Committee, and we have been dealing with a plethora of regulations that came out of Dodd-Frank, is that changing the business model into market behavior. And one of the things I have been particularly concerned about is liquidity in some of these markets. And markets do not perform well if they don't have the right amount of liquidity. And what we have seen is that some of these regulations have changed market players' behavior. We have seen some players get out of the marketplace.    And so one of the things that I am a little concerned about is this recently drafted technical specifications creates a pretty detailed and highly prescriptive set of standards on how to report each and every trade. And I am afraid that might not be all that easy for some of the non-standard hedging products.    So I guess, Ms. Kruse, do I have a valid concern that with all of these changes that we are making, that we are changing market behavior a little bit and potentially have a liquidity issue?</t>
   </si>
   <si>
@@ -127,6 +151,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. I have a couple questions for Mr. Rogers. In your testimony you comment that in a post-Dodd-Frank world, the Commission has adopted rules for data reporting that have changed how we view the markets. Specifically, can you talk a little bit about the transparency to market participants? Give me an example of that and what do you believe are some of the most significant gains in these efforts. And with respect to SDR data quality, do we plan to continue building upon this progress and how will we do that?</t>
   </si>
   <si>
@@ -145,6 +175,12 @@
     <t>412510</t>
   </si>
   <si>
+    <t>LaMalfa</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. LaMalfa. Thank you, Mr. Chairman. Mr. Gil, of course, I am glad we are having this hearing. It is important to hear from the end-users on how this process works or the difficulties of it. You didn't have a whole lot of time earlier. Could you elaborate a little more on the burdens that are imposed on the end-users by this amount of data that is required? Would you care to elaborate a little bit more on what that really looks like and what kind of a barrier that might actually be towards trading?</t>
   </si>
   <si>
@@ -259,6 +295,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman, and thanks to all the witnesses for being here today. I would like to start with Mr. Rogers. As the CFTC pushes to develop these standards to report each and every swap trade, are precautions being taken to ensure that such rules don't end up hurting liquidity? Because reporting actually imposes real costs on the market participants.</t>
   </si>
   <si>
@@ -320,6 +362,12 @@
   </si>
   <si>
     <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Kelly. Ms. Kruse, the CFTC swap data reporting requirements are not fully aligned with the SEC's requirement for securities-based swap data. Differences exist as to who is obligated to report, reporting timelines, and what data is reportable. What is the impact of these discrepancies between the SEC and CFTC's swap data reporting standards?</t>
@@ -695,7 +743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +751,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,2237 +773,2631 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G54" t="s">
+        <v>53</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>42</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G56" t="s">
+        <v>53</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G58" t="s">
+        <v>53</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G61" t="s">
+        <v>53</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>53</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>42</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G65" t="s">
+        <v>53</v>
+      </c>
       <c r="H65" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G66" t="s">
+        <v>93</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>80</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G68" t="s">
+        <v>93</v>
+      </c>
       <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G70" t="s">
+        <v>93</v>
+      </c>
       <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G72" t="s">
+        <v>93</v>
+      </c>
       <c r="H72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>80</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G74" t="s">
+        <v>93</v>
+      </c>
       <c r="H74" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G76" t="s">
+        <v>93</v>
+      </c>
       <c r="H76" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G78" t="s">
+        <v>93</v>
+      </c>
       <c r="H78" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G80" t="s">
+        <v>93</v>
+      </c>
       <c r="H80" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>80</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G82" t="s">
+        <v>93</v>
+      </c>
       <c r="H82" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G83" t="s">
+        <v>93</v>
+      </c>
       <c r="H83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G85" t="s">
+        <v>93</v>
+      </c>
       <c r="H85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
       <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>117</v>
+      </c>
+      <c r="I94" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98918.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rogers</t>
@@ -743,7 +749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -751,7 +757,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,2628 +782,2836 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>36</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G54" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G58" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G61" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G65" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G66" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G70" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G74" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G76" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G78" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>16</v>
-      </c>
-      <c r="G79" t="s">
-        <v>21</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G83" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G85" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G86" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>19</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G88" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>19</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G90" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G92" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I92" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s">
-        <v>21</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G94" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I94" t="s">
-        <v>126</v>
+        <v>119</v>
+      </c>
+      <c r="J94" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
